--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5b-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1341725</v>
+        <v>0.1557005</v>
       </c>
       <c r="N2">
-        <v>0.268345</v>
+        <v>0.311401</v>
       </c>
       <c r="O2">
-        <v>0.01633512969336317</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P2">
-        <v>0.01188426112752495</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q2">
-        <v>0.05009249783999999</v>
+        <v>0.05812984747199999</v>
       </c>
       <c r="R2">
-        <v>0.30055498704</v>
+        <v>0.3487790848319999</v>
       </c>
       <c r="S2">
-        <v>0.01197456628582673</v>
+        <v>0.01541175810434764</v>
       </c>
       <c r="T2">
-        <v>0.009562734571306249</v>
+        <v>0.01207015424888988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +623,10 @@
         <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7211927040052828</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P3">
-        <v>0.787031622511101</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q3">
         <v>2.211573746016</v>
@@ -641,10 +635,10 @@
         <v>19.904163714144</v>
       </c>
       <c r="S3">
-        <v>0.5286747029914673</v>
+        <v>0.5863466202959204</v>
       </c>
       <c r="T3">
-        <v>0.6332892238346146</v>
+        <v>0.6888209089160175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +673,34 @@
         <v>0.8046553730764257</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.007277666666666666</v>
+        <v>0.024117</v>
       </c>
       <c r="N4">
-        <v>0.021833</v>
+        <v>0.072351</v>
       </c>
       <c r="O4">
-        <v>0.0008860357291178598</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P4">
-        <v>0.0009669234500260938</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q4">
-        <v>0.002717073183999999</v>
+        <v>0.009003937247999999</v>
       </c>
       <c r="R4">
-        <v>0.024453658656</v>
+        <v>0.08103543523199999</v>
       </c>
       <c r="S4">
-        <v>0.0006495138862743978</v>
+        <v>0.002387181609580907</v>
       </c>
       <c r="T4">
-        <v>0.0007780401494170911</v>
+        <v>0.0028043831910027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.927182</v>
+        <v>1.3023455</v>
       </c>
       <c r="N5">
-        <v>3.854364</v>
+        <v>2.604691</v>
       </c>
       <c r="O5">
-        <v>0.2346290626821072</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P5">
-        <v>0.1706991680729343</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q5">
-        <v>0.7195018366079999</v>
+        <v>0.4862228783519999</v>
       </c>
       <c r="R5">
-        <v>4.317011019648</v>
+        <v>2.917337270112</v>
       </c>
       <c r="S5">
-        <v>0.1719962630483305</v>
+        <v>0.1289105289596737</v>
       </c>
       <c r="T5">
-        <v>0.1373540027695625</v>
+        <v>0.1009599267205155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -782,60 +776,60 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.373344</v>
+        <v>0.135954</v>
       </c>
       <c r="H6">
-        <v>1.120032</v>
+        <v>0.271908</v>
       </c>
       <c r="I6">
-        <v>0.7330560889695228</v>
+        <v>0.2669439110304773</v>
       </c>
       <c r="J6">
-        <v>0.8046553730764257</v>
+        <v>0.1953446269235743</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1820473333333333</v>
+        <v>0.1557005</v>
       </c>
       <c r="N6">
-        <v>0.5461419999999999</v>
+        <v>0.311401</v>
       </c>
       <c r="O6">
-        <v>0.02216375785150397</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P6">
-        <v>0.02418712530775207</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q6">
-        <v>0.06796627961599998</v>
+        <v>0.021168105777</v>
       </c>
       <c r="R6">
-        <v>0.6116965165439998</v>
+        <v>0.08467242310799999</v>
       </c>
       <c r="S6">
-        <v>0.01624727764749105</v>
+        <v>0.005612224011417028</v>
       </c>
       <c r="T6">
-        <v>0.0194623003381555</v>
+        <v>0.002930247976403487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,55 +838,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.135954</v>
+      </c>
+      <c r="H7">
+        <v>0.271908</v>
+      </c>
+      <c r="I7">
+        <v>0.2669439110304773</v>
+      </c>
+      <c r="J7">
+        <v>0.1953446269235743</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.373344</v>
-      </c>
-      <c r="H7">
-        <v>1.120032</v>
-      </c>
-      <c r="I7">
-        <v>0.7330560889695228</v>
-      </c>
-      <c r="J7">
-        <v>0.8046553730764257</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.039371</v>
+        <v>5.923689</v>
       </c>
       <c r="N7">
-        <v>0.118113</v>
+        <v>17.771067</v>
       </c>
       <c r="O7">
-        <v>0.004793310038624916</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P7">
-        <v>0.005230899530661477</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q7">
-        <v>0.014698926624</v>
+        <v>0.805349214306</v>
       </c>
       <c r="R7">
-        <v>0.132290339616</v>
+        <v>4.832095285836</v>
       </c>
       <c r="S7">
-        <v>0.003513765110132733</v>
+        <v>0.21351935056064</v>
       </c>
       <c r="T7">
-        <v>0.004209071413369711</v>
+        <v>0.1672237183415621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -927,34 +921,34 @@
         <v>0.1953446269235743</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1341725</v>
+        <v>0.024117</v>
       </c>
       <c r="N8">
-        <v>0.268345</v>
+        <v>0.072351</v>
       </c>
       <c r="O8">
-        <v>0.01633512969336317</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P8">
-        <v>0.01188426112752495</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q8">
-        <v>0.018241288065</v>
+        <v>0.003278802618</v>
       </c>
       <c r="R8">
-        <v>0.07296515226</v>
+        <v>0.019672815708</v>
       </c>
       <c r="S8">
-        <v>0.004360563407536446</v>
+        <v>0.0008692971858365546</v>
       </c>
       <c r="T8">
-        <v>0.002321526556218697</v>
+        <v>0.0006808146773477564</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -989,282 +983,34 @@
         <v>0.1953446269235743</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.923689</v>
+        <v>1.3023455</v>
       </c>
       <c r="N9">
-        <v>17.771067</v>
+        <v>2.604691</v>
       </c>
       <c r="O9">
-        <v>0.7211927040052828</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P9">
-        <v>0.787031622511101</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q9">
-        <v>0.805349214306</v>
+        <v>0.177059080107</v>
       </c>
       <c r="R9">
-        <v>4.832095285836</v>
+        <v>0.7082363204279999</v>
       </c>
       <c r="S9">
-        <v>0.1925180010138155</v>
+        <v>0.04694303927258368</v>
       </c>
       <c r="T9">
-        <v>0.1537423986764864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.135954</v>
-      </c>
-      <c r="H10">
-        <v>0.271908</v>
-      </c>
-      <c r="I10">
-        <v>0.2669439110304773</v>
-      </c>
-      <c r="J10">
-        <v>0.1953446269235743</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.007277666666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.021833</v>
-      </c>
-      <c r="O10">
-        <v>0.0008860357291178598</v>
-      </c>
-      <c r="P10">
-        <v>0.0009669234500260938</v>
-      </c>
-      <c r="Q10">
-        <v>0.0009894278939999999</v>
-      </c>
-      <c r="R10">
-        <v>0.005936567363999999</v>
-      </c>
-      <c r="S10">
-        <v>0.000236521842843462</v>
-      </c>
-      <c r="T10">
-        <v>0.0001888833006090026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.135954</v>
-      </c>
-      <c r="H11">
-        <v>0.271908</v>
-      </c>
-      <c r="I11">
-        <v>0.2669439110304773</v>
-      </c>
-      <c r="J11">
-        <v>0.1953446269235743</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.927182</v>
-      </c>
-      <c r="N11">
-        <v>3.854364</v>
-      </c>
-      <c r="O11">
-        <v>0.2346290626821072</v>
-      </c>
-      <c r="P11">
-        <v>0.1706991680729343</v>
-      </c>
-      <c r="Q11">
-        <v>0.262008101628</v>
-      </c>
-      <c r="R11">
-        <v>1.048032406512</v>
-      </c>
-      <c r="S11">
-        <v>0.06263279963377669</v>
-      </c>
-      <c r="T11">
-        <v>0.03334516530337187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.135954</v>
-      </c>
-      <c r="H12">
-        <v>0.271908</v>
-      </c>
-      <c r="I12">
-        <v>0.2669439110304773</v>
-      </c>
-      <c r="J12">
-        <v>0.1953446269235743</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.1820473333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.5461419999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.02216375785150397</v>
-      </c>
-      <c r="P12">
-        <v>0.02418712530775207</v>
-      </c>
-      <c r="Q12">
-        <v>0.024750063156</v>
-      </c>
-      <c r="R12">
-        <v>0.148500378936</v>
-      </c>
-      <c r="S12">
-        <v>0.005916480204012918</v>
-      </c>
-      <c r="T12">
-        <v>0.00472482496959657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.135954</v>
-      </c>
-      <c r="H13">
-        <v>0.271908</v>
-      </c>
-      <c r="I13">
-        <v>0.2669439110304773</v>
-      </c>
-      <c r="J13">
-        <v>0.1953446269235743</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.039371</v>
-      </c>
-      <c r="N13">
-        <v>0.118113</v>
-      </c>
-      <c r="O13">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="P13">
-        <v>0.005230899530661477</v>
-      </c>
-      <c r="Q13">
-        <v>0.005352644934</v>
-      </c>
-      <c r="R13">
-        <v>0.032115869604</v>
-      </c>
-      <c r="S13">
-        <v>0.001279544928492183</v>
-      </c>
-      <c r="T13">
-        <v>0.001021828117291766</v>
+        <v>0.02450984592826091</v>
       </c>
     </row>
   </sheetData>
